--- a/File_Excel/commenti_per_notizia_politica.xlsx
+++ b/File_Excel/commenti_per_notizia_politica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>143</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -760,7 +760,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
@@ -823,7 +823,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -907,7 +907,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -970,7 +970,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -1012,28 +1012,28 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>La morte di Silvio Berlusconi</t>
+          <t>L'incoronazione di Re Carlo</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FanPage</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30">
@@ -1050,11 +1050,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1087,16 +1087,16 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Il Corriere Della Sera</t>
+          <t>FanPage</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -1113,11 +1113,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34">
@@ -1134,11 +1134,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>YouTube</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -1150,16 +1150,16 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corriere Della Sera</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -1171,16 +1171,16 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>La Repubblica</t>
+          <t>Il Corrirere Della Sera</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>Facebook</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1197,11 +1197,53 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>La morte di Silvio Berlusconi</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>La morte di Silvio Berlusconi</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>La Repubblica</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>YouTube</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>75</v>
+      <c r="E39" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/File_Excel/commenti_per_notizia_politica.xlsx
+++ b/File_Excel/commenti_per_notizia_politica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Il Corrirere Della Sera</t>
+          <t>La Repubblica</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Facebook</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1218,31 +1218,10 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>YouTube</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>La morte di Silvio Berlusconi</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>La Repubblica</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>YouTube</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
         <v>100</v>
       </c>
     </row>
